--- a/output/DiagnosticReport/observation-imag-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-imag-atomic-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="493">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-01:One category shall be 'imaging' 'http://terminology.hl7.org/CodeSystem/observation-category' {category.coding.where(system='http://terminology.hl7.org/CodeSystem/observation-category' and code='imaging').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -702,14 +702,6 @@
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="imaging"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Codes for high level observation categories.</t>
@@ -5440,7 +5432,7 @@
         <v>45</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>45</v>
@@ -5458,10 +5450,10 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5503,10 +5495,10 @@
         <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5514,11 +5506,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5540,16 +5532,16 @@
         <v>214</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5574,14 +5566,14 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5598,7 +5590,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>55</v>
@@ -5613,27 +5605,27 @@
         <v>67</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5748,7 +5740,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5865,7 +5857,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5888,19 +5880,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5937,7 +5929,7 @@
         <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
@@ -5947,7 +5939,7 @@
         <v>104</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5968,10 +5960,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5982,10 +5974,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>45</v>
@@ -6007,19 +5999,19 @@
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6048,7 +6040,7 @@
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6066,7 +6058,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6087,10 +6079,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6101,7 +6093,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6127,16 +6119,16 @@
         <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6185,7 +6177,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6206,10 +6198,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6220,7 +6212,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6243,19 +6235,19 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6304,7 +6296,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6319,19 +6311,19 @@
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6339,7 +6331,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6362,16 +6354,16 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6421,7 +6413,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6442,13 +6434,13 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
@@ -6456,11 +6448,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6479,19 +6471,19 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6540,7 +6532,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6555,19 +6547,19 @@
         <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6575,11 +6567,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6598,19 +6590,19 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6659,7 +6651,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6674,19 +6666,19 @@
         <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6694,7 +6686,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6717,16 +6709,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6776,7 +6768,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6797,13 +6789,13 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6811,7 +6803,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6834,17 +6826,17 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6893,7 +6885,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6908,19 +6900,19 @@
         <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -6928,7 +6920,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6951,19 +6943,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7012,7 +7004,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7021,7 +7013,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -7030,24 +7022,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7073,16 +7065,16 @@
         <v>214</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7110,37 +7102,37 @@
         <v>147</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH46" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>67</v>
@@ -7155,7 +7147,7 @@
         <v>98</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7166,11 +7158,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7192,16 +7184,16 @@
         <v>214</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7229,11 +7221,11 @@
         <v>147</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7250,7 +7242,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7268,24 +7260,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7308,19 +7300,19 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7369,7 +7361,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7390,10 +7382,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7404,7 +7396,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7430,13 +7422,13 @@
         <v>214</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7462,14 +7454,14 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7486,7 +7478,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7504,24 +7496,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7547,16 +7539,16 @@
         <v>214</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7581,14 +7573,14 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7605,7 +7597,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7626,10 +7618,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7640,7 +7632,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7663,16 +7655,16 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7722,7 +7714,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7740,24 +7732,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7780,16 +7772,16 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7839,7 +7831,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7857,24 +7849,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>393</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7897,19 +7889,19 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7958,7 +7950,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7970,19 +7962,19 @@
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7993,7 +7985,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8108,7 +8100,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8225,11 +8217,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8251,10 +8243,10 @@
         <v>100</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>136</v>
@@ -8309,7 +8301,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8344,7 +8336,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8367,13 +8359,13 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8424,7 +8416,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8433,7 +8425,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8445,10 +8437,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8459,7 +8451,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8482,13 +8474,13 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8539,7 +8531,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8548,7 +8540,7 @@
         <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8560,10 +8552,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8574,7 +8566,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8600,16 +8592,16 @@
         <v>214</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8637,11 +8629,11 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8658,7 +8650,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8676,13 +8668,13 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AM59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8693,7 +8685,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8719,16 +8711,16 @@
         <v>214</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8753,14 +8745,14 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>436</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8777,7 +8769,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8795,13 +8787,13 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AM60" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8812,7 +8804,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8835,17 +8827,17 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8894,7 +8886,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8918,7 +8910,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8929,7 +8921,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8955,10 +8947,10 @@
         <v>57</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9009,7 +9001,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9030,10 +9022,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9044,7 +9036,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9067,16 +9059,16 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9126,7 +9118,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9147,10 +9139,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9161,7 +9153,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9276,7 +9268,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9393,7 +9385,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9510,7 +9502,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9627,7 +9619,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9744,7 +9736,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9861,7 +9853,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9884,16 +9876,16 @@
         <v>56</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9943,7 +9935,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9964,10 +9956,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -9978,7 +9970,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10001,19 +9993,19 @@
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10062,7 +10054,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10083,10 +10075,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10097,7 +10089,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10212,7 +10204,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10329,11 +10321,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10355,10 +10347,10 @@
         <v>100</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>136</v>
@@ -10413,7 +10405,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10448,7 +10440,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10474,16 +10466,16 @@
         <v>214</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="N75" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10508,14 +10500,14 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="X75" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="X75" t="s" s="2">
+      <c r="Y75" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10532,7 +10524,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>55</v>
@@ -10550,16 +10542,16 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>45</v>
@@ -10567,7 +10559,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10590,19 +10582,19 @@
         <v>56</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="N76" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -10651,7 +10643,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10669,24 +10661,24 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10712,16 +10704,16 @@
         <v>214</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M77" t="s" s="2">
-        <v>489</v>
-      </c>
       <c r="N77" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
@@ -10749,37 +10741,37 @@
         <v>147</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Y77" t="s" s="2">
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH77" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>67</v>
@@ -10794,7 +10786,7 @@
         <v>98</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -10805,11 +10797,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10831,16 +10823,16 @@
         <v>214</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
@@ -10868,11 +10860,11 @@
         <v>147</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>45</v>
       </c>
@@ -10889,7 +10881,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -10907,24 +10899,24 @@
         <v>45</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10950,16 +10942,16 @@
         <v>45</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="M79" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11008,7 +11000,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11029,10 +11021,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>

--- a/output/DiagnosticReport/observation-imag-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-imag-atomic-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="470">
   <si>
     <t>Path</t>
   </si>
@@ -760,77 +760,6 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>snomedImagingProcedure</t>
-  </si>
-  <si>
-    <t>Imaging Procedure (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1710,7 +1639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO79"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1720,7 +1649,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1743,7 +1672,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -5623,7 +5552,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>238</v>
       </c>
@@ -5633,31 +5562,35 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5705,7 +5638,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5717,22 +5650,22 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>116</v>
+        <v>246</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5740,11 +5673,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5760,19 +5693,19 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5810,19 +5743,19 @@
         <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5834,7 +5767,7 @@
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5843,13 +5776,13 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -5857,18 +5790,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
@@ -5880,19 +5813,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5929,23 +5862,25 @@
         <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AB36" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
@@ -5954,43 +5889,41 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
@@ -5999,19 +5932,19 @@
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6036,11 +5969,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6058,13 +5993,13 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
@@ -6073,19 +6008,19 @@
         <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6093,7 +6028,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6116,20 +6051,18 @@
         <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>57</v>
+        <v>277</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6177,7 +6110,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6198,13 +6131,13 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6212,7 +6145,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6220,10 +6153,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>56</v>
@@ -6235,19 +6168,17 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6296,13 +6227,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6311,27 +6242,27 @@
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6342,10 +6273,10 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
@@ -6354,18 +6285,20 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6413,16 +6346,16 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6431,28 +6364,28 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6462,28 +6395,28 @@
         <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6508,13 +6441,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6532,7 +6465,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6541,25 +6474,25 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>285</v>
+        <v>98</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6567,18 +6500,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>56</v>
@@ -6587,22 +6520,22 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6627,13 +6560,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6651,13 +6584,13 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6666,27 +6599,27 @@
         <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6697,30 +6630,32 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6768,13 +6703,13 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -6789,21 +6724,21 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6814,30 +6749,30 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6861,13 +6796,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6885,13 +6820,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6900,27 +6835,27 @@
         <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6934,28 +6869,28 @@
         <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>317</v>
+        <v>214</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6980,13 +6915,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -7004,7 +6939,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7013,7 +6948,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -7022,24 +6957,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7053,7 +6988,7 @@
         <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>45</v>
@@ -7062,20 +6997,18 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>214</v>
+        <v>353</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7099,13 +7032,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7123,7 +7056,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7132,7 +7065,7 @@
         <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>67</v>
@@ -7141,38 +7074,38 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>98</v>
+        <v>358</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>360</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
@@ -7181,20 +7114,18 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>214</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7218,13 +7149,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>343</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7242,13 +7173,13 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
@@ -7260,24 +7191,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>347</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7300,19 +7231,19 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7361,7 +7292,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7373,7 +7304,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>67</v>
+        <v>376</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7382,10 +7313,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7396,7 +7327,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7419,17 +7350,15 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>357</v>
+        <v>113</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7454,13 +7383,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>361</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7478,7 +7407,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>356</v>
+        <v>115</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7490,41 +7419,41 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>364</v>
+        <v>116</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7536,20 +7465,18 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>367</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>135</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7573,13 +7500,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7597,19 +7524,19 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>366</v>
+        <v>119</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
@@ -7618,10 +7545,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>374</v>
+        <v>116</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7632,41 +7559,43 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>382</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7714,42 +7643,42 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>381</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>382</v>
+        <v>98</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7763,7 +7692,7 @@
         <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>45</v>
@@ -7772,17 +7701,15 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7831,7 +7758,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7840,7 +7767,7 @@
         <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>67</v>
@@ -7849,19 +7776,19 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
@@ -7877,7 +7804,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>56</v>
@@ -7889,20 +7816,16 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>398</v>
-      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7956,13 +7879,13 @@
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>399</v>
+        <v>67</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7971,10 +7894,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7983,9 +7906,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7999,7 +7922,7 @@
         <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>45</v>
@@ -8008,16 +7931,20 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>113</v>
+        <v>398</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -8041,13 +7968,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8065,7 +7992,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>115</v>
+        <v>397</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8077,19 +8004,19 @@
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>116</v>
+        <v>323</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8098,13 +8025,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8114,7 +8041,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>45</v>
@@ -8123,18 +8050,20 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>407</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>135</v>
+        <v>408</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8158,13 +8087,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8182,7 +8111,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>119</v>
+        <v>406</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8194,19 +8123,19 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>116</v>
+        <v>323</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8215,44 +8144,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>100</v>
+        <v>414</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>166</v>
+        <v>417</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8301,19 +8228,19 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8325,7 +8252,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>98</v>
+        <v>418</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8336,7 +8263,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8359,13 +8286,13 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>410</v>
+        <v>57</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8416,7 +8343,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8425,7 +8352,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8437,10 +8364,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8451,7 +8378,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8462,7 +8389,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>56</v>
@@ -8471,18 +8398,20 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8531,16 +8460,16 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8552,10 +8481,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8564,9 +8493,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8580,7 +8509,7 @@
         <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>45</v>
@@ -8589,20 +8518,16 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>421</v>
+        <v>113</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8626,13 +8551,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>425</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8650,7 +8575,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>420</v>
+        <v>115</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8662,19 +8587,19 @@
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>346</v>
+        <v>116</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8683,13 +8608,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8699,7 +8624,7 @@
         <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>45</v>
@@ -8708,20 +8633,18 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>430</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
+        <v>135</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8745,31 +8668,31 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>434</v>
+        <v>45</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>435</v>
+        <v>45</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>429</v>
+        <v>119</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8781,19 +8704,19 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>346</v>
+        <v>116</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8802,9 +8725,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8812,33 +8735,33 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>437</v>
+        <v>57</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>438</v>
+        <v>138</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8886,7 +8809,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>436</v>
+        <v>141</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8895,7 +8818,7 @@
         <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>67</v>
@@ -8910,7 +8833,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>441</v>
+        <v>98</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8919,9 +8842,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8935,24 +8858,26 @@
         <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>443</v>
+        <v>144</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8977,13 +8902,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9001,7 +8926,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>442</v>
+        <v>150</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9022,10 +8947,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>445</v>
+        <v>98</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9034,9 +8959,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9047,10 +8972,10 @@
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>45</v>
@@ -9059,16 +8984,16 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>447</v>
+        <v>152</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>448</v>
+        <v>153</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>449</v>
+        <v>154</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>450</v>
+        <v>155</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9118,13 +9043,13 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>446</v>
+        <v>156</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
@@ -9139,10 +9064,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>451</v>
+        <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>452</v>
+        <v>157</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9153,7 +9078,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9173,18 +9098,20 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9233,7 +9160,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9245,7 +9172,7 @@
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9257,7 +9184,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9268,11 +9195,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9288,19 +9215,19 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>100</v>
+        <v>437</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>438</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>135</v>
+        <v>439</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>136</v>
+        <v>440</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9338,19 +9265,19 @@
         <v>45</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>119</v>
+        <v>436</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9362,7 +9289,7 @@
         <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>45</v>
@@ -9371,10 +9298,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>116</v>
+        <v>441</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9385,7 +9312,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9393,10 +9320,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9408,18 +9335,20 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>57</v>
+        <v>371</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>138</v>
+        <v>443</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>139</v>
+        <v>444</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9467,16 +9396,16 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>141</v>
+        <v>442</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>67</v>
@@ -9488,10 +9417,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>45</v>
+        <v>447</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>98</v>
+        <v>448</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9502,7 +9431,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9522,20 +9451,18 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9560,13 +9487,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9584,7 +9511,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9596,7 +9523,7 @@
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>45</v>
@@ -9608,7 +9535,7 @@
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9619,18 +9546,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9639,19 +9566,19 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9701,19 +9628,19 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
@@ -9725,7 +9652,7 @@
         <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9736,41 +9663,43 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>45</v>
+        <v>382</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>159</v>
+        <v>383</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>160</v>
+        <v>384</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9818,19 +9747,19 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>162</v>
+        <v>385</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
@@ -9853,7 +9782,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9861,10 +9790,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -9876,18 +9805,20 @@
         <v>56</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>460</v>
+        <v>214</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -9911,13 +9842,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -9935,13 +9866,13 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
@@ -9953,16 +9884,16 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>451</v>
+        <v>234</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>464</v>
+        <v>235</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
@@ -9970,7 +9901,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9981,7 +9912,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -9993,19 +9924,19 @@
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>467</v>
+        <v>296</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>469</v>
+        <v>298</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10054,13 +9985,13 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -10072,24 +10003,24 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>470</v>
+        <v>301</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>471</v>
+        <v>302</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10112,16 +10043,20 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>113</v>
+        <v>463</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10145,13 +10080,13 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10169,7 +10104,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>115</v>
+        <v>462</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10178,10 +10113,10 @@
         <v>55</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>45</v>
@@ -10190,10 +10125,10 @@
         <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>116</v>
+        <v>312</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10204,11 +10139,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>133</v>
+        <v>314</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10227,18 +10162,20 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>135</v>
+        <v>316</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10262,13 +10199,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10286,7 +10223,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>119</v>
+        <v>466</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10298,34 +10235,34 @@
         <v>45</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>116</v>
+        <v>323</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10338,25 +10275,25 @@
         <v>45</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>406</v>
+        <v>468</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>136</v>
+        <v>374</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>166</v>
+        <v>375</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10405,7 +10342,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10417,7 +10354,7 @@
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>45</v>
@@ -10426,615 +10363,20 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>45</v>
+        <v>377</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>98</v>
+        <v>378</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO79" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO79">
+  <autoFilter ref="A1:AO74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11044,7 +10386,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-imag-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-imag-atomic-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="493">
   <si>
     <t>Path</t>
   </si>
@@ -760,6 +760,77 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>snomedImagingProcedure</t>
+  </si>
+  <si>
+    <t>Imaging Procedure (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1639,7 +1710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO74"/>
+  <dimension ref="A1:AO79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1649,7 +1720,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1672,7 +1743,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -5552,7 +5623,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>238</v>
       </c>
@@ -5562,35 +5633,31 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5638,7 +5705,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5650,22 +5717,22 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5673,11 +5740,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5693,19 +5760,19 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5743,19 +5810,19 @@
         <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5767,7 +5834,7 @@
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5776,13 +5843,13 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>253</v>
+        <v>116</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -5790,18 +5857,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
@@ -5813,19 +5880,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5862,25 +5929,23 @@
         <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
@@ -5889,41 +5954,43 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="C37" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
@@ -5932,19 +5999,19 @@
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5969,13 +6036,11 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5993,13 +6058,13 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
@@ -6008,19 +6073,19 @@
         <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6028,7 +6093,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6051,18 +6116,20 @@
         <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>277</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6110,7 +6177,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6131,13 +6198,13 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6145,7 +6212,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6153,10 +6220,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>56</v>
@@ -6168,17 +6235,19 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6227,13 +6296,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6242,27 +6311,27 @@
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6273,10 +6342,10 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
@@ -6285,20 +6354,18 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6346,16 +6413,16 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6364,28 +6431,28 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6395,28 +6462,28 @@
         <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6441,13 +6508,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6465,7 +6532,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6474,25 +6541,25 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>98</v>
+        <v>285</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6500,18 +6567,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>56</v>
@@ -6520,22 +6587,22 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6560,13 +6627,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6584,13 +6651,13 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6599,27 +6666,27 @@
         <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6630,32 +6697,30 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6703,13 +6768,13 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -6724,21 +6789,21 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6749,30 +6814,30 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6796,13 +6861,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6820,13 +6885,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6835,27 +6900,27 @@
         <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>339</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6869,28 +6934,28 @@
         <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6915,13 +6980,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6939,7 +7004,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6948,7 +7013,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -6957,24 +7022,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6988,7 +7053,7 @@
         <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>45</v>
@@ -6997,18 +7062,20 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>353</v>
+        <v>214</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7032,13 +7099,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7056,7 +7123,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7065,7 +7132,7 @@
         <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>67</v>
@@ -7074,38 +7141,38 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>98</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
@@ -7114,18 +7181,20 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>362</v>
+        <v>214</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7149,13 +7218,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7173,13 +7242,13 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
@@ -7191,24 +7260,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7231,19 +7300,19 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7292,7 +7361,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7304,7 +7373,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>376</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7313,10 +7382,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7327,7 +7396,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7350,15 +7419,17 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>113</v>
+        <v>357</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7383,13 +7454,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7407,7 +7478,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>115</v>
+        <v>356</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7419,41 +7490,41 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>116</v>
+        <v>364</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7465,18 +7536,20 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>135</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7500,13 +7573,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7524,19 +7597,19 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>119</v>
+        <v>366</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
@@ -7545,10 +7618,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>116</v>
+        <v>374</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7559,43 +7632,41 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>100</v>
+        <v>376</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7643,42 +7714,42 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>98</v>
+        <v>382</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7692,7 +7763,7 @@
         <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>45</v>
@@ -7701,15 +7772,17 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7758,7 +7831,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7767,7 +7840,7 @@
         <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>67</v>
@@ -7776,19 +7849,19 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="53">
@@ -7804,7 +7877,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>56</v>
@@ -7816,16 +7889,20 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7879,13 +7956,13 @@
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>67</v>
+        <v>399</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7894,10 +7971,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7906,9 +7983,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7922,7 +7999,7 @@
         <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>45</v>
@@ -7931,20 +8008,16 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>398</v>
+        <v>113</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7968,70 +8041,70 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>402</v>
+        <v>45</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8041,7 +8114,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>45</v>
@@ -8050,20 +8123,18 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>407</v>
+        <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>408</v>
+        <v>135</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8087,13 +8158,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>411</v>
+        <v>45</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8111,7 +8182,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>406</v>
+        <v>119</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8123,63 +8194,65 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H56" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>414</v>
+        <v>100</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N56" t="s" s="2">
-        <v>417</v>
+        <v>166</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8228,19 +8301,19 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8252,7 +8325,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>418</v>
+        <v>98</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8263,7 +8336,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8286,13 +8359,13 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>57</v>
+        <v>410</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8343,7 +8416,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8352,7 +8425,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8364,10 +8437,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8378,7 +8451,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8389,7 +8462,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>56</v>
@@ -8398,20 +8471,18 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8460,16 +8531,16 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8481,10 +8552,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8493,9 +8564,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8509,7 +8580,7 @@
         <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>45</v>
@@ -8518,16 +8589,20 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>113</v>
+        <v>421</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8551,13 +8626,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>45</v>
+        <v>425</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>45</v>
+        <v>426</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8575,7 +8650,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>115</v>
+        <v>420</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8587,19 +8662,19 @@
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>45</v>
+        <v>427</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>116</v>
+        <v>346</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8608,13 +8683,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8624,7 +8699,7 @@
         <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>45</v>
@@ -8633,18 +8708,20 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>430</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>135</v>
+        <v>431</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8668,31 +8745,31 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>119</v>
+        <v>429</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8704,19 +8781,19 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>45</v>
+        <v>427</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>116</v>
+        <v>346</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8725,9 +8802,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8735,33 +8812,33 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>57</v>
+        <v>437</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>138</v>
+        <v>438</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8809,7 +8886,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>141</v>
+        <v>436</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8818,7 +8895,7 @@
         <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>67</v>
@@ -8833,7 +8910,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>98</v>
+        <v>441</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8842,9 +8919,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8858,26 +8935,24 @@
         <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>144</v>
+        <v>443</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8902,13 +8977,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8926,7 +9001,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>150</v>
+        <v>442</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8947,10 +9022,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>98</v>
+        <v>445</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8959,9 +9034,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8972,10 +9047,10 @@
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>45</v>
@@ -8984,16 +9059,16 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>152</v>
+        <v>447</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>153</v>
+        <v>448</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>154</v>
+        <v>449</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>155</v>
+        <v>450</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9043,13 +9118,13 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>156</v>
+        <v>446</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
@@ -9064,10 +9139,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>45</v>
+        <v>451</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>157</v>
+        <v>452</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9078,7 +9153,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9098,20 +9173,18 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9160,7 +9233,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9172,7 +9245,7 @@
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9184,7 +9257,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9195,11 +9268,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9215,19 +9288,19 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>437</v>
+        <v>100</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>438</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>439</v>
+        <v>135</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>440</v>
+        <v>136</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9265,19 +9338,19 @@
         <v>45</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>436</v>
+        <v>119</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9289,7 +9362,7 @@
         <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>45</v>
@@ -9298,10 +9371,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>441</v>
+        <v>116</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9312,7 +9385,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9320,10 +9393,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9335,20 +9408,18 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>371</v>
+        <v>57</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>443</v>
+        <v>138</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>444</v>
+        <v>139</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9396,16 +9467,16 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>442</v>
+        <v>141</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>67</v>
@@ -9417,10 +9488,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>447</v>
+        <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>448</v>
+        <v>98</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9431,7 +9502,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9451,18 +9522,20 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9487,13 +9560,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9511,7 +9584,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9523,7 +9596,7 @@
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>45</v>
@@ -9535,7 +9608,7 @@
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9546,18 +9619,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9566,19 +9639,19 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9628,19 +9701,19 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
@@ -9652,7 +9725,7 @@
         <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9663,43 +9736,41 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>383</v>
+        <v>159</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>384</v>
+        <v>160</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9747,19 +9818,19 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>385</v>
+        <v>162</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
@@ -9782,7 +9853,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9790,10 +9861,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -9805,20 +9876,18 @@
         <v>56</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>214</v>
+        <v>460</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -9842,13 +9911,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -9866,13 +9935,13 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
@@ -9884,16 +9953,16 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>456</v>
+        <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>234</v>
+        <v>451</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>235</v>
+        <v>464</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
@@ -9901,7 +9970,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9912,7 +9981,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -9924,19 +9993,19 @@
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>296</v>
+        <v>467</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>298</v>
+        <v>469</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -9985,13 +10054,13 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -10003,24 +10072,24 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>461</v>
+        <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>302</v>
+        <v>471</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10043,20 +10112,16 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>463</v>
+        <v>113</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10080,13 +10145,13 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10104,7 +10169,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>462</v>
+        <v>115</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10113,10 +10178,10 @@
         <v>55</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>45</v>
@@ -10125,10 +10190,10 @@
         <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>312</v>
+        <v>116</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10139,11 +10204,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>314</v>
+        <v>133</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10162,20 +10227,18 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>316</v>
+        <v>135</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10199,13 +10262,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10223,7 +10286,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>466</v>
+        <v>119</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10235,34 +10298,34 @@
         <v>45</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>323</v>
+        <v>116</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10275,25 +10338,25 @@
         <v>45</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>374</v>
+        <v>136</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>375</v>
+        <v>166</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10342,7 +10405,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10354,29 +10417,624 @@
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO74" t="s" s="2">
+      <c r="AJ75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO79" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO74">
+  <autoFilter ref="A1:AO79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10386,7 +11044,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-imag-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-imag-atomic-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="492">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-01:One category shall be 'imaging' 'http://terminology.hl7.org/CodeSystem/observation-category' {category.coding.where(system='http://terminology.hl7.org/CodeSystem/observation-category' and code='imaging').exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-01:One category shall be 'imaging' 'http://terminology.hl7.org/CodeSystem/observation-category' {category.coding.where(system='http://terminology.hl7.org/CodeSystem/observation-category' and code='imaging').exists()}inv-dh-obs-04:The observation shall at least have a value, a data absent reason or a member observation {value.exists() or hasMember.exists() or dataAbsentReason.exists()}inv-dh-obs-02:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-obs-03:The performer shall at least have a reference or an identifier with at least a system and a value {performer.reference.exists() or performer.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -649,7 +649,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>preliminary | final | amended +</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -664,10 +664,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/diagnostic-observation-status-1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -836,7 +833,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -981,7 +978,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/organization-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -1743,7 +1740,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.34765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -5330,11 +5327,9 @@
       <c r="W31" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="X31" s="2"/>
+      <c r="Y31" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5367,19 +5362,19 @@
         <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5387,7 +5382,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5410,19 +5405,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5450,11 +5445,11 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5471,7 +5466,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5495,10 +5490,10 @@
         <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5506,11 +5501,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5529,19 +5524,19 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5566,14 +5561,14 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5590,7 +5585,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>55</v>
@@ -5605,27 +5600,27 @@
         <v>67</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>237</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5740,7 +5735,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5857,7 +5852,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5880,19 +5875,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5929,7 +5924,7 @@
         <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
@@ -5939,7 +5934,7 @@
         <v>104</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5960,10 +5955,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5974,10 +5969,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>45</v>
@@ -5999,19 +5994,19 @@
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6040,7 +6035,7 @@
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6058,7 +6053,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6079,10 +6074,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6093,7 +6088,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6119,16 +6114,16 @@
         <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6177,7 +6172,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6198,10 +6193,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6212,7 +6207,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6235,19 +6230,19 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6296,7 +6291,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6311,19 +6306,19 @@
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6331,7 +6326,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6354,16 +6349,16 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6413,7 +6408,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6434,13 +6429,13 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
@@ -6448,11 +6443,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6471,19 +6466,19 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6532,7 +6527,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6547,19 +6542,19 @@
         <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6567,11 +6562,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6590,19 +6585,19 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6651,7 +6646,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6666,19 +6661,19 @@
         <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6686,7 +6681,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6709,16 +6704,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6768,7 +6763,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6789,13 +6784,13 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6803,7 +6798,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6826,17 +6821,17 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6885,7 +6880,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6900,19 +6895,19 @@
         <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -6920,7 +6915,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6943,19 +6938,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7004,7 +6999,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7013,7 +7008,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -7022,24 +7017,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7062,19 +7057,19 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7102,37 +7097,37 @@
         <v>147</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH46" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>67</v>
@@ -7147,7 +7142,7 @@
         <v>98</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7158,11 +7153,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7181,19 +7176,19 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7221,11 +7216,11 @@
         <v>147</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7242,7 +7237,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7260,24 +7255,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>347</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7300,19 +7295,19 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7361,7 +7356,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7382,10 +7377,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7396,7 +7391,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7419,16 +7414,16 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7454,14 +7449,14 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7478,7 +7473,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7496,24 +7491,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7536,19 +7531,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7573,14 +7568,14 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7597,7 +7592,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7618,10 +7613,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7632,7 +7627,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7655,16 +7650,16 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7714,7 +7709,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7732,24 +7727,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7772,16 +7767,16 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7831,7 +7826,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7849,24 +7844,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7889,19 +7884,19 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7950,7 +7945,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7962,19 +7957,19 @@
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7985,7 +7980,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8100,7 +8095,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8217,11 +8212,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8243,10 +8238,10 @@
         <v>100</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>136</v>
@@ -8301,7 +8296,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8336,7 +8331,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8359,13 +8354,13 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8416,7 +8411,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8425,7 +8420,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8437,10 +8432,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8451,7 +8446,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8474,13 +8469,13 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8531,7 +8526,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8540,7 +8535,7 @@
         <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8552,10 +8547,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8566,7 +8561,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8589,19 +8584,19 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8629,11 +8624,11 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8650,7 +8645,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8668,13 +8663,13 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="AM59" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8685,7 +8680,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8708,19 +8703,19 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8745,14 +8740,14 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8769,7 +8764,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8787,13 +8782,13 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="AM60" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8804,7 +8799,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8827,17 +8822,17 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8886,7 +8881,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8910,7 +8905,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8921,7 +8916,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8947,10 +8942,10 @@
         <v>57</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9001,7 +8996,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9022,10 +9017,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9036,7 +9031,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9059,16 +9054,16 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9118,7 +9113,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9139,10 +9134,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9153,7 +9148,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9268,7 +9263,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9385,7 +9380,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9502,7 +9497,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9619,7 +9614,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9736,7 +9731,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9853,7 +9848,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9876,16 +9871,16 @@
         <v>56</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9935,7 +9930,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9956,10 +9951,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -9970,7 +9965,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9993,19 +9988,19 @@
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10054,7 +10049,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10075,10 +10070,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10089,7 +10084,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10204,7 +10199,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10321,11 +10316,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10347,10 +10342,10 @@
         <v>100</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>136</v>
@@ -10405,7 +10400,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10440,7 +10435,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10463,19 +10458,19 @@
         <v>56</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="N75" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10500,14 +10495,14 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="X75" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="X75" t="s" s="2">
+      <c r="Y75" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y75" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
       </c>
@@ -10524,7 +10519,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>55</v>
@@ -10542,16 +10537,16 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>45</v>
@@ -10559,7 +10554,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10582,19 +10577,19 @@
         <v>56</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="N76" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -10643,7 +10638,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10661,24 +10656,24 @@
         <v>45</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10701,19 +10696,19 @@
         <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M77" t="s" s="2">
-        <v>488</v>
-      </c>
       <c r="N77" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
@@ -10741,37 +10736,37 @@
         <v>147</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Y77" t="s" s="2">
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH77" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>67</v>
@@ -10786,7 +10781,7 @@
         <v>98</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -10797,11 +10792,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10820,19 +10815,19 @@
         <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
@@ -10860,11 +10855,11 @@
         <v>147</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>45</v>
       </c>
@@ -10881,7 +10876,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -10899,24 +10894,24 @@
         <v>45</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>347</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10942,16 +10937,16 @@
         <v>45</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="M79" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11000,7 +10995,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11021,10 +11016,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>

--- a/output/DiagnosticReport/observation-imag-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-imag-atomic-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="469">
   <si>
     <t>Path</t>
   </si>
@@ -757,77 +757,6 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>snomedImagingProcedure</t>
-  </si>
-  <si>
-    <t>Imaging Procedure (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1707,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO79"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1717,7 +1646,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -5618,7 +5547,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>237</v>
       </c>
@@ -5628,31 +5557,35 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5700,7 +5633,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5712,22 +5645,22 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5735,11 +5668,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5755,19 +5688,19 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5805,19 +5738,19 @@
         <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>119</v>
+        <v>247</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5829,7 +5762,7 @@
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5838,13 +5771,13 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -5852,18 +5785,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
@@ -5875,19 +5808,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5924,23 +5857,25 @@
         <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AB36" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
@@ -5949,43 +5884,41 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
@@ -5994,19 +5927,19 @@
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6031,11 +5964,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6053,13 +5988,13 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
@@ -6068,19 +6003,19 @@
         <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6088,7 +6023,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6111,20 +6046,18 @@
         <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>57</v>
+        <v>276</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6172,7 +6105,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6193,13 +6126,13 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6207,7 +6140,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6215,10 +6148,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>56</v>
@@ -6230,19 +6163,17 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6291,13 +6222,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6306,27 +6237,27 @@
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6337,10 +6268,10 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
@@ -6349,18 +6280,20 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6408,16 +6341,16 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6426,28 +6359,28 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6457,28 +6390,28 @@
         <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6503,13 +6436,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6527,7 +6460,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6536,25 +6469,25 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6562,18 +6495,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>56</v>
@@ -6582,22 +6515,22 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6622,13 +6555,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6646,13 +6579,13 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6661,27 +6594,27 @@
         <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6692,30 +6625,32 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6763,13 +6698,13 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -6784,21 +6719,21 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6809,30 +6744,30 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>307</v>
+        <v>213</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6856,13 +6791,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6880,13 +6815,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6895,27 +6830,27 @@
         <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6929,28 +6864,28 @@
         <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>316</v>
+        <v>213</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6975,13 +6910,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6999,7 +6934,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7008,7 +6943,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>321</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -7017,24 +6952,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7048,7 +6983,7 @@
         <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>45</v>
@@ -7057,20 +6992,18 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>213</v>
+        <v>352</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7094,13 +7027,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7118,7 +7051,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7127,7 +7060,7 @@
         <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>67</v>
@@ -7136,38 +7069,38 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>98</v>
+        <v>357</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
@@ -7176,20 +7109,18 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>213</v>
+        <v>361</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7213,13 +7144,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>341</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7237,13 +7168,13 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
@@ -7255,24 +7186,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>346</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7295,19 +7226,19 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7356,7 +7287,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7368,7 +7299,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>67</v>
+        <v>375</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7377,10 +7308,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7391,7 +7322,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7414,17 +7345,15 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>356</v>
+        <v>113</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7449,13 +7378,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7473,7 +7402,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>355</v>
+        <v>115</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7485,41 +7414,41 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>361</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>363</v>
+        <v>116</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7531,20 +7460,18 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>366</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
+        <v>135</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7568,13 +7495,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7592,19 +7519,19 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>365</v>
+        <v>119</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
@@ -7613,10 +7540,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>373</v>
+        <v>116</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7627,41 +7554,43 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7709,42 +7638,42 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>381</v>
+        <v>98</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7758,7 +7687,7 @@
         <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>45</v>
@@ -7767,17 +7696,15 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7826,7 +7753,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7835,7 +7762,7 @@
         <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>67</v>
@@ -7844,19 +7771,19 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
@@ -7872,7 +7799,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>56</v>
@@ -7884,20 +7811,16 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7951,13 +7874,13 @@
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>389</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>398</v>
+        <v>67</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7966,10 +7889,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7978,9 +7901,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7994,7 +7917,7 @@
         <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>45</v>
@@ -8003,16 +7926,20 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>113</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -8036,13 +7963,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8060,7 +7987,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>115</v>
+        <v>396</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8072,19 +7999,19 @@
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>116</v>
+        <v>322</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8093,13 +8020,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8109,7 +8036,7 @@
         <v>44</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>45</v>
@@ -8118,18 +8045,20 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>406</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8153,13 +8082,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>45</v>
+        <v>410</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8177,7 +8106,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>119</v>
+        <v>405</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8189,19 +8118,19 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>116</v>
+        <v>322</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8210,44 +8139,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>100</v>
+        <v>413</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>166</v>
+        <v>416</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8296,19 +8223,19 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8320,7 +8247,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8331,7 +8258,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8354,13 +8281,13 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>409</v>
+        <v>57</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8411,7 +8338,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8420,7 +8347,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>67</v>
@@ -8432,10 +8359,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8446,7 +8373,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8457,7 +8384,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>56</v>
@@ -8466,18 +8393,20 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8526,16 +8455,16 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8547,10 +8476,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8559,9 +8488,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8575,7 +8504,7 @@
         <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>45</v>
@@ -8584,20 +8513,16 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>420</v>
+        <v>113</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8621,13 +8546,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>424</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>425</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8645,7 +8570,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>419</v>
+        <v>115</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8657,19 +8582,19 @@
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>345</v>
+        <v>116</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8678,13 +8603,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8694,7 +8619,7 @@
         <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>45</v>
@@ -8703,20 +8628,18 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>429</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>430</v>
+        <v>135</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8740,31 +8663,31 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>433</v>
+        <v>45</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>434</v>
+        <v>45</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>428</v>
+        <v>119</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8776,19 +8699,19 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>345</v>
+        <v>116</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8797,9 +8720,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8807,33 +8730,33 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>436</v>
+        <v>57</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>138</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8881,7 +8804,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>435</v>
+        <v>141</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8890,7 +8813,7 @@
         <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>67</v>
@@ -8905,7 +8828,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>440</v>
+        <v>98</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8914,9 +8837,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8930,24 +8853,26 @@
         <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>442</v>
+        <v>144</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8972,13 +8897,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8996,7 +8921,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>441</v>
+        <v>150</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9017,10 +8942,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>444</v>
+        <v>98</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9029,9 +8954,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9042,10 +8967,10 @@
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>45</v>
@@ -9054,16 +8979,16 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>446</v>
+        <v>152</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>447</v>
+        <v>153</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>154</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>449</v>
+        <v>155</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9113,13 +9038,13 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>445</v>
+        <v>156</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
@@ -9134,10 +9059,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>451</v>
+        <v>157</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9148,7 +9073,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9168,18 +9093,20 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9228,7 +9155,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9240,7 +9167,7 @@
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9252,7 +9179,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9263,11 +9190,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9283,19 +9210,19 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>100</v>
+        <v>436</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>437</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>135</v>
+        <v>438</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>136</v>
+        <v>439</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9333,19 +9260,19 @@
         <v>45</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>119</v>
+        <v>435</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9357,7 +9284,7 @@
         <v>45</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>45</v>
@@ -9366,10 +9293,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>45</v>
+        <v>427</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>116</v>
+        <v>440</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9380,7 +9307,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9388,10 +9315,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9403,18 +9330,20 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>57</v>
+        <v>370</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>138</v>
+        <v>442</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>139</v>
+        <v>443</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -9462,16 +9391,16 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>141</v>
+        <v>441</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>67</v>
@@ -9483,10 +9412,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>98</v>
+        <v>447</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9497,7 +9426,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9517,20 +9446,18 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9555,13 +9482,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9579,7 +9506,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9591,7 +9518,7 @@
         <v>45</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>45</v>
@@ -9603,7 +9530,7 @@
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9614,18 +9541,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9634,19 +9561,19 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9696,19 +9623,19 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>45</v>
@@ -9720,7 +9647,7 @@
         <v>45</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9731,41 +9658,43 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>159</v>
+        <v>382</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>160</v>
+        <v>383</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9813,19 +9742,19 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>162</v>
+        <v>384</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>45</v>
@@ -9848,7 +9777,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9856,10 +9785,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -9871,18 +9800,20 @@
         <v>56</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>459</v>
+        <v>213</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -9906,13 +9837,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -9930,13 +9861,13 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
@@ -9948,16 +9879,16 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>45</v>
+        <v>455</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>450</v>
+        <v>233</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>463</v>
+        <v>234</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
@@ -9965,7 +9896,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9976,7 +9907,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -9988,19 +9919,19 @@
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>466</v>
+        <v>295</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>468</v>
+        <v>297</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10049,13 +9980,13 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -10067,24 +9998,24 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>469</v>
+        <v>300</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>470</v>
+        <v>301</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10107,16 +10038,20 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>113</v>
+        <v>462</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10140,13 +10075,13 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
@@ -10164,7 +10099,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>115</v>
+        <v>461</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10173,10 +10108,10 @@
         <v>55</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>45</v>
@@ -10185,10 +10120,10 @@
         <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>116</v>
+        <v>311</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10199,11 +10134,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>133</v>
+        <v>313</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10222,18 +10157,20 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>134</v>
+        <v>314</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>135</v>
+        <v>315</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -10257,13 +10194,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10281,7 +10218,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>119</v>
+        <v>465</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10293,34 +10230,34 @@
         <v>45</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>45</v>
+        <v>320</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>116</v>
+        <v>322</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10333,25 +10270,25 @@
         <v>45</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>405</v>
+        <v>467</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>406</v>
+        <v>468</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>136</v>
+        <v>373</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>166</v>
+        <v>374</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10400,7 +10337,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10412,7 +10349,7 @@
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>45</v>
@@ -10421,615 +10358,20 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>98</v>
+        <v>377</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO79" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO79">
+  <autoFilter ref="A1:AO74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11039,7 +10381,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-imag-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-imag-atomic-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="470">
   <si>
     <t>Path</t>
   </si>
@@ -732,13 +732,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1069,6 +1063,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1443,6 +1440,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -5490,13 +5493,11 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X33" s="2"/>
+      <c r="Y33" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5529,27 +5530,27 @@
         <v>67</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5572,19 +5573,19 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5633,7 +5634,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5648,19 +5649,19 @@
         <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5668,7 +5669,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5691,16 +5692,16 @@
         <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5750,7 +5751,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5771,13 +5772,13 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -5785,11 +5786,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5808,19 +5809,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5869,7 +5870,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5884,19 +5885,19 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -5904,11 +5905,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5927,19 +5928,19 @@
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5988,7 +5989,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6003,19 +6004,19 @@
         <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6023,7 +6024,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6046,16 +6047,16 @@
         <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6105,7 +6106,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6126,13 +6127,13 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6140,7 +6141,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6163,17 +6164,17 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6222,7 +6223,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6237,19 +6238,19 @@
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6257,7 +6258,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6280,19 +6281,19 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6341,7 +6342,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6350,7 +6351,7 @@
         <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6359,24 +6360,24 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6402,16 +6403,16 @@
         <v>213</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6439,37 +6440,37 @@
         <v>147</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH41" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6484,7 +6485,7 @@
         <v>98</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6495,11 +6496,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6521,16 +6522,16 @@
         <v>213</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6558,10 +6559,10 @@
         <v>147</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6579,7 +6580,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6597,24 +6598,24 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6637,19 +6638,19 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6698,7 +6699,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6719,10 +6720,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6733,7 +6734,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6759,13 +6760,13 @@
         <v>213</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6791,14 +6792,14 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6815,7 +6816,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6833,24 +6834,24 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6876,16 +6877,16 @@
         <v>213</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6910,14 +6911,14 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6934,7 +6935,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6955,10 +6956,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6969,7 +6970,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6992,16 +6993,16 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7051,7 +7052,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7069,24 +7070,24 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7109,16 +7110,16 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7168,7 +7169,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7186,24 +7187,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7226,19 +7227,19 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7287,7 +7288,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7299,19 +7300,19 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7322,7 +7323,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7437,7 +7438,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7554,11 +7555,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7580,10 +7581,10 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>136</v>
@@ -7638,7 +7639,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7673,7 +7674,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7696,13 +7697,13 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7753,7 +7754,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7762,7 +7763,7 @@
         <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>67</v>
@@ -7774,10 +7775,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7788,7 +7789,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7811,13 +7812,13 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7868,7 +7869,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7877,7 +7878,7 @@
         <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>67</v>
@@ -7889,10 +7890,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7903,7 +7904,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7929,16 +7930,16 @@
         <v>213</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7966,11 +7967,11 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7987,7 +7988,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8005,13 +8006,13 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="AM54" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8022,7 +8023,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8048,16 +8049,16 @@
         <v>213</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8082,14 +8083,14 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8124,13 +8125,13 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="AM55" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8141,7 +8142,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8164,17 +8165,17 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8223,7 +8224,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8247,7 +8248,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8258,7 +8259,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8284,10 +8285,10 @@
         <v>57</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8338,7 +8339,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8359,10 +8360,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8373,7 +8374,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8396,16 +8397,16 @@
         <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8455,7 +8456,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8476,10 +8477,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8490,7 +8491,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8605,7 +8606,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8722,7 +8723,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8839,7 +8840,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8956,7 +8957,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9073,7 +9074,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9190,7 +9191,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9213,16 +9214,16 @@
         <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9272,7 +9273,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9293,10 +9294,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9307,7 +9308,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9330,19 +9331,19 @@
         <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9391,7 +9392,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9412,10 +9413,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9426,7 +9427,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9541,7 +9542,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9658,11 +9659,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9684,10 +9685,10 @@
         <v>100</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>136</v>
@@ -9742,7 +9743,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9777,7 +9778,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9803,13 +9804,13 @@
         <v>213</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>227</v>
@@ -9837,13 +9838,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>229</v>
+        <v>454</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>230</v>
+        <v>455</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -9861,7 +9862,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>55</v>
@@ -9879,16 +9880,16 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
@@ -9896,7 +9897,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9919,19 +9920,19 @@
         <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -9980,7 +9981,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -9998,24 +9999,24 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10041,16 +10042,16 @@
         <v>213</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10078,37 +10079,37 @@
         <v>147</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH72" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>67</v>
@@ -10123,7 +10124,7 @@
         <v>98</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10134,11 +10135,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10160,16 +10161,16 @@
         <v>213</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10197,10 +10198,10 @@
         <v>147</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10218,7 +10219,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10236,24 +10237,24 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10279,16 +10280,16 @@
         <v>45</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M74" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10337,7 +10338,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10358,10 +10359,10 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>

--- a/output/DiagnosticReport/observation-imag-atomic-1.xlsx
+++ b/output/DiagnosticReport/observation-imag-atomic-1.xlsx
@@ -664,7 +664,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/diagnostic-observation-status-1</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/observationstatus-result-available-1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1672,7 +1672,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.34765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.2890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
